--- a/project/supplier_management/data/Data_of_sample.xlsx
+++ b/project/supplier_management/data/Data_of_sample.xlsx
@@ -77,7 +77,118 @@
     <t>1/srm/config_list</t>
   </si>
   <si>
-    <t>None</t>
+    <r>
+      <t>{
+ "id": "42",
+ "srmRelationId": "29",
+ "purchaser_name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思南佳新农机制造销售有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+ " purchaser_py_code": "ADFAF",
+ "purchaser_type": "9",
+ "purchaser_level": "15",
+ "purchaser_open_bank": "adgafgefgreargq",
+ "purchaser_goods_type": "12",
+ "purchaser_reputation": "5",
+ "purchaser_bank_account": "1515613215623561",
+ "purchaser_province": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海南省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+ "purchaser_city": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三亚市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+ "purchaser_area": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉阳区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+ "purchaser_address": "dfvdf",
+ "purchaser_link_name": "sdbfsdbs",
+ "purchaser_link_sex": "1",
+ "purchaser_link_appellation": "bsb",
+ "purchaser_department": "bsbsf",
+ "purchaser_post": "sbfsf",
+ "purchaser_fax": "sbfds",
+ "purchaser_mobile": "15698747892",
+ "purchaser_tel": "18254698745",
+ "purchaser_email": "ywrtr@qq.com",
+ "purchaser_remark": "fagfag",
+ "create_type": "10",
+ "purchaser_id": "4260714",
+ "certificate": [
+  {
+   "name": "adgsdfgsg",
+   "code": "gsfdsgtwert",
+   "effective_start_time": "1",
+   "effective_end_time": "0",
+   "file_url": "",
+"long_effective": "1"
+  }
+ ]
+}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -188,81 +299,25 @@
     <t>1/srm/config_save</t>
   </si>
   <si>
-    <r>
-      <t>{
-    "3": [
-  {
-   "90": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"
-  },
-  {
-   "226": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一般</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"
-  },
-  {
-   "227": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"
-  }
- ]
+    <t>{
+  "3": [
+    {
+      "90": "4"
+    },
+    {
+      "226": "5"
+    },
+    {
+      "227": "6"
+    }
+  ]
 }</t>
-    </r>
   </si>
   <si>
     <t>{
  "code": 200,
  "msg": "",
- "data":"true" 
+ "data":true
 }</t>
   </si>
   <si>
@@ -5106,7 +5161,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
@@ -5171,7 +5226,7 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">

--- a/project/supplier_management/data/Data_of_sample.xlsx
+++ b/project/supplier_management/data/Data_of_sample.xlsx
@@ -4373,7 +4373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4394,19 +4394,6 @@
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4531,7 +4518,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4561,7 +4548,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4579,28 +4566,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4609,10 +4596,10 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4670,7 +4657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4699,22 +4686,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -5137,17 +5112,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="3" width="20" style="1" customWidth="1"/>
@@ -5222,7 +5197,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5249,82 +5224,68 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" ht="141" customHeight="1" spans="1:12">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="A2 A3 A4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="A2 A3">
       <formula1>系统数据!$E$1:$E$4</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="B2 B3 B4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="B2 B3">
       <formula1>系统数据!$A$1:$A$243</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3 K4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="K2 K3">
       <formula1>"单元测试阶段,功能测试阶段,集成测试阶段,系统测试阶段,冒烟测试阶段,版本验证阶段"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="C2 C3 C4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="C2 C3">
       <formula1>INDIRECT(VLOOKUP(B2,系统数据!$W$1:$X$243,2,0))</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="J2 J3 J4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="J2 J3">
       <formula1>"功能测试,性能测试,配置相关,安装部署,安全相关,接口测试,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="I2 I3 I4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="I2 I3">
       <formula1>",3,1,2,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3 L4">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="输入有误" error="您输入的值不在下拉框列表内。" sqref="L2 L3">
       <formula1>",待评审,正常,被阻塞,研究中"</formula1>
     </dataValidation>
   </dataValidations>
